--- a/biology/Zoologie/Apocheiridium_ferum/Apocheiridium_ferum.xlsx
+++ b/biology/Zoologie/Apocheiridium_ferum/Apocheiridium_ferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apocheiridium ferum est une espèce de pseudoscorpions de la famille des Cheiridiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Portugal, en Espagne, en France, en Italie, en Suisse, en Allemagne, en Pologne, en Tchéquie, en Autriche, en Roumanie, en Bulgarie, en Turquie, en Azerbaïdjan et en Ouzbékistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Portugal, en Espagne, en France, en Italie, en Suisse, en Allemagne, en Pologne, en Tchéquie, en Autriche, en Roumanie, en Bulgarie, en Turquie, en Azerbaïdjan et en Ouzbékistan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simon, 1879 : Les Ordres des Chernetes, Scorpiones et Opiliones. Les Arachnides de France, p. 1-332.</t>
         </is>
